--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value463.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value463.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.232097546651606</v>
+        <v>1.106152176856995</v>
       </c>
       <c r="B1">
-        <v>1.835969234640991</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>3.792181590747546</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>3.307436877583785</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>0.5779986112243339</v>
+        <v>1.170005202293396</v>
       </c>
     </row>
   </sheetData>
